--- a/QC_original.xlsx
+++ b/QC_original.xlsx
@@ -1293,13 +1293,17 @@
   </si>
   <si>
     <r>
+      <t>彩色噪声大</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>彩色噪声大</t>
+      <t xml:space="preserve">
+观察过程中自启动失败</t>
     </r>
     <r>
       <rPr>
@@ -1356,9 +1360,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1398,6 +1402,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
@@ -1412,6 +1422,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1419,11 +1437,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1437,28 +1477,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1481,7 +1499,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1496,51 +1544,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1565,49 +1569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,37 +1581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,37 +1593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,7 +1617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,13 +1635,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,13 +1743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,44 +1817,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,6 +1854,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1899,15 +1912,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1916,10 +1920,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1928,16 +1932,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1949,16 +1953,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1967,98 +1968,101 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2110,6 +2114,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2122,7 +2129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2553,42 +2560,42 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="19" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
-    <col min="4" max="7" width="5.125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="20" customWidth="1"/>
-    <col min="9" max="17" width="6.625" style="20" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="20" customWidth="1"/>
+    <col min="4" max="7" width="5.125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="21" customWidth="1"/>
+    <col min="9" max="17" width="6.625" style="21" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" style="21" customWidth="1"/>
     <col min="19" max="19" width="23.5" style="2" customWidth="1"/>
     <col min="20" max="23" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="81" customHeight="1" spans="2:23">
-      <c r="B1" s="21" t="s">
+    <row r="1" s="18" customFormat="1" ht="81" customHeight="1" spans="2:23">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="24" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="2"/>
@@ -2685,7 +2692,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" s="18" customFormat="1" ht="40.5" spans="2:23">
+    <row r="5" s="19" customFormat="1" ht="40.5" spans="2:23">
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2716,22 +2723,22 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="26" t="s">
+      <c r="R5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-    </row>
-    <row r="6" s="18" customFormat="1" ht="28" customHeight="1" spans="1:23">
-      <c r="A6" s="18">
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+    </row>
+    <row r="6" s="19" customFormat="1" ht="28" customHeight="1" spans="1:23">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2761,22 +2768,22 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="28" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="T6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="30" t="s">
+      <c r="U6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="29" t="s">
+      <c r="V6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="27"/>
-    </row>
-    <row r="7" s="18" customFormat="1" ht="40.5" spans="2:23">
+      <c r="W6" s="28"/>
+    </row>
+    <row r="7" s="19" customFormat="1" ht="40.5" spans="2:23">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2807,24 +2814,24 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="26" t="s">
+      <c r="R7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="29" t="s">
+      <c r="T7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="29" t="s">
+      <c r="U7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="30" t="s">
+      <c r="V7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="27"/>
-    </row>
-    <row r="8" s="18" customFormat="1" ht="54" spans="2:23">
+      <c r="W7" s="28"/>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="54" spans="2:23">
       <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
@@ -2876,19 +2883,19 @@
       <c r="R8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-    </row>
-    <row r="9" s="18" customFormat="1" ht="54" spans="2:23">
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" s="19" customFormat="1" ht="54" spans="2:23">
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
@@ -2940,19 +2947,19 @@
       <c r="R9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="T9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="30" t="s">
+      <c r="U9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="29" t="s">
+      <c r="V9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="W9" s="27"/>
+      <c r="W9" s="28"/>
     </row>
     <row r="10" ht="40.5" spans="2:20">
       <c r="B10" s="4" t="s">
@@ -3017,7 +3024,7 @@
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3057,7 +3064,7 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="4"/>
@@ -3077,8 +3084,8 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="28" t="s">
+      <c r="R12" s="26"/>
+      <c r="S12" s="29" t="s">
         <v>25</v>
       </c>
       <c r="T12" s="15" t="s">
@@ -3517,7 +3524,7 @@
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="4"/>
@@ -3984,7 +3991,7 @@
       <c r="R27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S27" s="31" t="s">
+      <c r="S27" s="32" t="s">
         <v>105</v>
       </c>
       <c r="T27" s="14" t="s">
@@ -4049,7 +4056,7 @@
       <c r="R28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="31" t="s">
+      <c r="S28" s="32" t="s">
         <v>105</v>
       </c>
       <c r="T28" s="15" t="s">
@@ -4117,7 +4124,7 @@
       <c r="R29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S29" s="31" t="s">
+      <c r="S29" s="32" t="s">
         <v>115</v>
       </c>
       <c r="T29" s="14" t="s">
@@ -4568,7 +4575,7 @@
       <c r="A37">
         <v>6</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -5130,7 +5137,7 @@
       <c r="A46">
         <v>7</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C46" s="4"/>
@@ -5284,7 +5291,7 @@
       <c r="A49">
         <v>9</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="24" t="s">
         <v>184</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -6134,7 +6141,7 @@
       <c r="A63">
         <v>10</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>226</v>
       </c>
       <c r="C63" s="4"/>
@@ -6228,7 +6235,7 @@
       <c r="A65">
         <v>11</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="24" t="s">
         <v>231</v>
       </c>
       <c r="C65" s="4"/>
@@ -6269,7 +6276,7 @@
       <c r="A66">
         <v>12</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="24" t="s">
         <v>237</v>
       </c>
       <c r="C66" s="4"/>
@@ -6614,7 +6621,7 @@
       <c r="A72">
         <v>13</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="24" t="s">
         <v>256</v>
       </c>
       <c r="C72" s="4"/>
@@ -6770,7 +6777,7 @@
       <c r="A75">
         <v>18</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="24" t="s">
         <v>265</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -6956,7 +6963,7 @@
       <c r="A78">
         <v>14</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="24" t="s">
         <v>274</v>
       </c>
       <c r="C78" s="4"/>
@@ -6983,7 +6990,7 @@
       <c r="A79">
         <v>15</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="24" t="s">
         <v>276</v>
       </c>
       <c r="C79" s="4"/>
@@ -7765,7 +7772,7 @@
       <c r="A92">
         <v>16</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="24" t="s">
         <v>316</v>
       </c>
       <c r="C92" s="4"/>
@@ -8111,37 +8118,37 @@
       </c>
     </row>
     <row r="106" spans="6:7">
-      <c r="F106" s="20" t="s">
+      <c r="F106" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="G106" s="20">
+      <c r="G106" s="21">
         <v>93</v>
       </c>
     </row>
     <row r="107" spans="6:7">
-      <c r="F107" s="20" t="s">
+      <c r="F107" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G107" s="20">
+      <c r="G107" s="21">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="6:18">
-      <c r="F108" s="32" t="s">
+      <c r="F108" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="G108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="32"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="32"/>
-      <c r="L108" s="32"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="33"/>
+      <c r="P108" s="33"/>
+      <c r="Q108" s="33"/>
+      <c r="R108" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8445,11 +8452,11 @@
   <dimension ref="A1:W89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10610,7 +10617,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" ht="54" spans="1:22">
+    <row r="39" ht="67.5" spans="1:22">
       <c r="A39">
         <v>35</v>
       </c>
@@ -10647,7 +10654,7 @@
       <c r="R39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="16" t="s">
+      <c r="S39" s="17" t="s">
         <v>359</v>
       </c>
       <c r="T39" s="14" t="s">
